--- a/Vibrações/cálculo_vibrações.xlsx
+++ b/Vibrações/cálculo_vibrações.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7edb9008620f8b59/GitHub/latex/Vibrações/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="843" documentId="8_{4AA594CF-4230-4E16-8F58-E0F45482F480}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B0FD9921-B0DA-40BB-9F21-E73D53572106}"/>
+  <xr:revisionPtr revIDLastSave="881" documentId="8_{4AA594CF-4230-4E16-8F58-E0F45482F480}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7BC06A35-5A95-4760-BEA3-4499C6805F3B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{01BF74E6-0181-4066-8E6A-35BC40A24DD5}"/>
   </bookViews>
@@ -166,17 +166,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>Vibrações</t>
   </si>
   <si>
-    <t>λ_1</t>
-  </si>
-  <si>
-    <t>λ_2</t>
-  </si>
-  <si>
     <t>Dados</t>
   </si>
   <si>
@@ -262,6 +256,114 @@
   </si>
   <si>
     <t>ciclos/s</t>
+  </si>
+  <si>
+    <t>ω_d</t>
+  </si>
+  <si>
+    <r>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">n </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= hello</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ω</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>vel_x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>λ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>λ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -272,17 +374,17 @@
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;N/m&quot;;\-#,##0.00;0.00"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;rad/s&quot;;\-#,##0.00&quot;rad/s&quot;;0.00\ &quot;rad/s&quot;"/>
     <numFmt numFmtId="166" formatCode="0.00\ &quot;s&quot;"/>
-    <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;mm&quot;;\-#,##0.00\ &quot;mm&quot;"/>
-    <numFmt numFmtId="169" formatCode="#,##0.000\ &quot;mm&quot;;\-#,##0.000\ &quot;mm&quot;"/>
-    <numFmt numFmtId="170" formatCode="0.00\ &quot;kg&quot;"/>
-    <numFmt numFmtId="171" formatCode="0.00\ &quot;kg/s&quot;"/>
-    <numFmt numFmtId="172" formatCode="#,##0.0\ &quot;N/m&quot;;\-#,##0.0;0.0\ &quot;N/m&quot;"/>
-    <numFmt numFmtId="173" formatCode="#,##0.00\ &quot;N/m&quot;;\-#,##0.00;0.00\ &quot;N/m&quot;"/>
-    <numFmt numFmtId="174" formatCode="0.000"/>
-    <numFmt numFmtId="181" formatCode="#,##0.00\ &quot;mm/s&quot;;\-#,##0.00\ &quot;mm/s&quot;"/>
-    <numFmt numFmtId="187" formatCode="#,##0.00\ &quot;ciclos/s&quot;;\-#,##0.00\ &quot;ciclos/s&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00\ &quot;mm&quot;;\-#,##0.00\ &quot;mm&quot;"/>
+    <numFmt numFmtId="168" formatCode="#,##0.000\ &quot;mm&quot;;\-#,##0.000\ &quot;mm&quot;"/>
+    <numFmt numFmtId="169" formatCode="0.00\ &quot;kg&quot;"/>
+    <numFmt numFmtId="170" formatCode="0.00\ &quot;kg/s&quot;"/>
+    <numFmt numFmtId="171" formatCode="#,##0.0\ &quot;N/m&quot;;\-#,##0.0;0.0\ &quot;N/m&quot;"/>
+    <numFmt numFmtId="172" formatCode="#,##0.00\ &quot;N/m&quot;;\-#,##0.00;0.00\ &quot;N/m&quot;"/>
+    <numFmt numFmtId="173" formatCode="0.000"/>
+    <numFmt numFmtId="174" formatCode="#,##0.00\ &quot;mm/s&quot;;\-#,##0.00\ &quot;mm/s&quot;"/>
+    <numFmt numFmtId="175" formatCode="#,##0.00\ &quot;ciclos/s&quot;;\-#,##0.00\ &quot;ciclos/s&quot;"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,6 +437,21 @@
       <name val="Segoe UI"/>
       <charset val="1"/>
     </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -385,12 +502,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -401,45 +518,45 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="167" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="173" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,8 +586,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>259718</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>58126</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>216876</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -506,15 +623,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>183173</xdr:colOff>
+      <xdr:colOff>24423</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>71960</xdr:rowOff>
+      <xdr:rowOff>87835</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>3904</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>197826</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>456341</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>15263</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -537,8 +654,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6909288" y="269787"/>
-          <a:ext cx="2861403" cy="719347"/>
+          <a:off x="7461861" y="286273"/>
+          <a:ext cx="2876668" cy="721178"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -558,7 +675,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>401181</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>61609</xdr:rowOff>
+      <xdr:rowOff>21922</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1163,10 +1280,10 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1182,180 +1299,186 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="D3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="D3" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="18"/>
+      <c r="E3" s="27"/>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I3" s="12">
         <f>2*SQRT($B$4*$B$5)</f>
-        <v>22360.679774997898</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="21">
-        <v>2500000</v>
-      </c>
-      <c r="D4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="19">
+        <v>392</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="28"/>
+      <c r="H4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E4" s="19"/>
-      <c r="H4" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="I4" s="12">
         <f>2*$B$5*B8</f>
-        <v>22360.679774997898</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="4">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E5" s="6" t="e">
         <f>POWER(SUM(POWER(E8,-1),POWER(E9,-1),IF(E10&gt;0,POWER(E10,-1),0)),-1)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E6" s="6">
         <f>SUM(E8:E10)</f>
         <v>0</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I6" s="17">
         <f>SQRT(B4/B5)</f>
-        <v>223.60679774997897</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="12">
         <f>2*SQRT(B4*B5)</f>
-        <v>22360.679774997898</v>
+        <v>56</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I7" s="5">
         <f>B6/B7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B8" s="17">
         <f>SQRT(B4/B5)</f>
-        <v>223.60679774997897</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E8" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="17">
+        <f>I6*SQRT((1-POWER(B9,2)))</f>
+        <v>9.260129588726068</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="22">
+        <v>8</v>
+      </c>
+      <c r="B9" s="20">
         <f>B6/B7</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E9" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D10" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E10" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="16">
-        <v>142</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B12" s="16"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="16">
-        <v>8</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B13" s="16"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
-      <c r="H13" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="18"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H13" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="27"/>
+      <c r="O13" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H14" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H15" s="26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H15" s="24">
         <v>1.9599999999999999E-4</v>
       </c>
       <c r="I15" s="1">
@@ -1363,76 +1486,76 @@
         <v>0.19600000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="18"/>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="27"/>
       <c r="H16" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="24">
+        <v>33</v>
+      </c>
+      <c r="B17" s="22" t="str">
         <f>IF(B6=0,B12*COS(B8*B11)+B13*SIN(B8*B11),"-")</f>
-        <v>142</v>
-      </c>
-      <c r="H17" s="27">
+        <v>-</v>
+      </c>
+      <c r="H17" s="25">
         <v>31.3</v>
       </c>
-      <c r="I17" s="28">
+      <c r="I17" s="26">
         <f>H17/(2*PI())</f>
         <v>4.981549718776324</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="24">
+        <v>34</v>
+      </c>
+      <c r="B18" s="22" t="str">
         <f>IF(B6=0,-B12*B8*SIN(B8*B11)+B13*B8*COS(B8*B11),"-")</f>
-        <v>1788.8543819998317</v>
+        <v>-</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="18"/>
+      <c r="A19" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="27"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="18"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="27"/>
+    </row>
+    <row r="21" spans="1:9" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="22" t="str">
+        <v>35</v>
+      </c>
+      <c r="B21" s="20" t="str">
         <f>IF($B$9&gt;1,$B$8*(-$B$9+SQRT(POWER($B$9,2)-1)),IF($B$9=1,"Critico","Subamortecido"))</f>
         <v>Subamortecido</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="22" t="str">
+        <v>36</v>
+      </c>
+      <c r="B22" s="20" t="str">
         <f>IF($B$9&gt;1,$B$8*(-$B$9-SQRT(POWER($B$9,2)-1)),IF($B$9=1,"Critico","Subamortecido"))</f>
         <v>Subamortecido</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B23" s="14" t="str">
         <f>IF(B9&gt;1,B12*EXP(B21*B11)+B13*EXP(B22*B11),"-")</f>
@@ -1441,41 +1564,41 @@
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="25" t="str">
+        <v>34</v>
+      </c>
+      <c r="B24" s="23" t="str">
         <f>IF(B9&gt;1,B12*POWER(B21,2)*EXP(B21*B11)+B13*POWER(B22,2)*EXP(B22*B11),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="18"/>
+      <c r="A25" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="27"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="18"/>
+      <c r="A26" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="27"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="20" t="str">
+        <v>11</v>
+      </c>
+      <c r="B27" s="18" t="str">
         <f>IF(B9=1,(B12+B13*B11)*EXP(-B8*B11),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="23" t="str">
+        <v>23</v>
+      </c>
+      <c r="B28" s="21" t="str">
         <f>IF(B9=1,B13*EXP(-B8*B11)+(B12+B13*B11)*(-B8*EXP(-B8*B11)),"-")</f>
         <v>-</v>
       </c>

--- a/Vibrações/cálculo_vibrações.xlsx
+++ b/Vibrações/cálculo_vibrações.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7edb9008620f8b59/GitHub/latex/Vibrações/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="881" documentId="8_{4AA594CF-4230-4E16-8F58-E0F45482F480}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7BC06A35-5A95-4760-BEA3-4499C6805F3B}"/>
+  <xr:revisionPtr revIDLastSave="882" documentId="8_{4AA594CF-4230-4E16-8F58-E0F45482F480}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ABE69662-E289-4F9C-9E4D-CDFE90B903B7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{01BF74E6-0181-4066-8E6A-35BC40A24DD5}"/>
   </bookViews>
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>Vibrações</t>
   </si>
@@ -259,32 +259,6 @@
   </si>
   <si>
     <t>ω_d</t>
-  </si>
-  <si>
-    <r>
-      <t>w</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">n </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>= hello</t>
-    </r>
   </si>
   <si>
     <r>
@@ -763,7 +737,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>321262</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>168357</xdr:rowOff>
+      <xdr:rowOff>168356</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1280,10 +1254,10 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:B25"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1299,12 +1273,12 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>1</v>
       </c>
@@ -1321,7 +1295,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>17</v>
       </c>
@@ -1340,7 +1314,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
@@ -1355,7 +1329,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
@@ -1377,7 +1351,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
@@ -1393,9 +1367,9 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="17">
         <f>SQRT(B4/B5)</f>
@@ -1415,7 +1389,7 @@
         <v>9.260129588726068</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
@@ -1430,7 +1404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1438,7 +1412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>12</v>
       </c>
@@ -1446,7 +1420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
@@ -1454,7 +1428,7 @@
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="1:15" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>10</v>
       </c>
@@ -1465,11 +1439,8 @@
         <v>27</v>
       </c>
       <c r="I13" s="27"/>
-      <c r="O13" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H14" s="9" t="s">
         <v>25</v>
       </c>
@@ -1477,7 +1448,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H15" s="24">
         <v>1.9599999999999999E-4</v>
       </c>
@@ -1486,7 +1457,7 @@
         <v>0.19600000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
         <v>24</v>
       </c>
@@ -1500,7 +1471,7 @@
     </row>
     <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="22" t="str">
         <f>IF(B6=0,B12*COS(B8*B11)+B13*SIN(B8*B11),"-")</f>
@@ -1516,7 +1487,7 @@
     </row>
     <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="22" t="str">
         <f>IF(B6=0,-B12*B8*SIN(B8*B11)+B13*B8*COS(B8*B11),"-")</f>
@@ -1537,7 +1508,7 @@
     </row>
     <row r="21" spans="1:9" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="20" t="str">
         <f>IF($B$9&gt;1,$B$8*(-$B$9+SQRT(POWER($B$9,2)-1)),IF($B$9=1,"Critico","Subamortecido"))</f>
@@ -1546,7 +1517,7 @@
     </row>
     <row r="22" spans="1:9" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="20" t="str">
         <f>IF($B$9&gt;1,$B$8*(-$B$9-SQRT(POWER($B$9,2)-1)),IF($B$9=1,"Critico","Subamortecido"))</f>
@@ -1555,7 +1526,7 @@
     </row>
     <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="14" t="str">
         <f>IF(B9&gt;1,B12*EXP(B21*B11)+B13*EXP(B22*B11),"-")</f>
@@ -1566,7 +1537,7 @@
     </row>
     <row r="24" spans="1:9" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="23" t="str">
         <f>IF(B9&gt;1,B12*POWER(B21,2)*EXP(B21*B11)+B13*POWER(B22,2)*EXP(B22*B11),"-")</f>
